--- a/Hogeschool/Graduaat/1GRPOD/Laptop/Data & SQL/projectoverzicht_D.xlsx
+++ b/Hogeschool/Graduaat/1GRPOD/Laptop/Data & SQL/projectoverzicht_D.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduaat\1GRPOD\Data &amp; SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITSchool\Schooloedeningen\Hogeschool\Graduaat\1GRPOD\Laptop\Data &amp; SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB56967-5D9E-4274-B20C-B2E4684515B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A550E2B1-B108-4351-ADAC-C6186106159D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11F197B9-33EB-448B-A536-DF12D343660A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11F197B9-33EB-448B-A536-DF12D343660A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
   <si>
     <t>NV0</t>
   </si>
@@ -114,15 +114,6 @@
     <t>Rudi</t>
   </si>
   <si>
-    <t>Mogelijke PK's</t>
-  </si>
-  <si>
-    <t>Medewerkersnummer</t>
-  </si>
-  <si>
-    <t>Projectnummer</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -130,13 +121,55 @@
   </si>
   <si>
     <t>NV2</t>
+  </si>
+  <si>
+    <t>NV3</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>tbl_Uren</t>
+  </si>
+  <si>
+    <t>tbl_Project</t>
+  </si>
+  <si>
+    <t>tbl_Medewerker</t>
+  </si>
+  <si>
+    <t>tbl_Afdeling</t>
+  </si>
+  <si>
+    <t>VDU</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>TVV</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Programmering</t>
+  </si>
+  <si>
+    <t>PROJECTMEDEWERKER</t>
+  </si>
+  <si>
+    <t>MEDEWERKER</t>
+  </si>
+  <si>
+    <t>AFDELING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,16 +208,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,20 +245,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,7 +340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -517,22 +636,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4FB17D-6D68-469A-BB40-003448C1C2C8}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,10 +663,13 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -554,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -576,8 +702,11 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -590,22 +719,25 @@
       <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -616,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -633,10 +765,15 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -647,13 +784,28 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -664,10 +816,25 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="14">
+        <v>1</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -678,18 +845,42 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="14">
+        <v>2</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="14">
+        <v>3</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -697,119 +888,285 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F19" s="3" t="s">
+      <c r="I13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="14">
+        <v>1</v>
+      </c>
+      <c r="O15" s="14">
+        <v>3</v>
+      </c>
+      <c r="P15" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I16" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="5" t="s">
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="14">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="O16" s="14">
+        <v>5</v>
+      </c>
+      <c r="P16" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N17" s="14">
+        <v>2</v>
+      </c>
+      <c r="O17" s="14">
+        <v>4</v>
+      </c>
+      <c r="P17" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="14">
+        <v>2</v>
+      </c>
+      <c r="O18" s="14">
+        <v>5</v>
+      </c>
+      <c r="P18" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="P21" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="N22" s="14">
+        <v>3</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+      <c r="N23" s="14">
+        <v>4</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="N24" s="14">
+        <v>5</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="H21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
